--- a/Team-Data/2014-15/4-7-2014-15.xlsx
+++ b/Team-Data/2014-15/4-7-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,40 +751,40 @@
         <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.467</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M2" t="n">
         <v>26.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
@@ -735,16 +802,16 @@
         <v>17.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -768,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -941,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -989,13 +1056,13 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>22</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>23</v>
-      </c>
       <c r="BA3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1129,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1153,13 +1220,13 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,7 +1297,7 @@
         <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.423</v>
@@ -1251,19 +1318,19 @@
         <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T5" t="n">
         <v>44.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
@@ -1278,25 +1345,25 @@
         <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
@@ -1329,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
@@ -1350,13 +1417,13 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -1472,25 +1539,25 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1508,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1517,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1538,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,16 +1742,16 @@
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM7" t="n">
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1699,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1720,13 +1787,13 @@
         <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,13 +1843,13 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M8" t="n">
         <v>25.6</v>
@@ -1794,19 +1861,19 @@
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.4</v>
@@ -1827,7 +1894,7 @@
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
         <v>104.6</v>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1869,19 +1936,19 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1890,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2051,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
         <v>63</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,25 +2389,25 @@
         <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L11" t="n">
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.396</v>
+        <v>0.395</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q11" t="n">
         <v>0.769</v>
@@ -2349,22 +2416,22 @@
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>3.5</v>
@@ -2373,16 +2440,16 @@
         <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2427,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2451,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2516,16 +2583,16 @@
         <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
         <v>11.9</v>
@@ -2537,10 +2604,10 @@
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
@@ -2576,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>20</v>
@@ -2600,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,16 +2676,16 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
@@ -2627,13 +2694,13 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
@@ -2767,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2785,10 +2852,10 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2815,7 +2882,7 @@
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2874,19 +2941,19 @@
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M14" t="n">
         <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
         <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.708</v>
@@ -2895,7 +2962,7 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
         <v>42.5</v>
@@ -2919,7 +2986,7 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
         <v>106.8</v>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -3047,28 +3114,28 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>85.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
         <v>0.741</v>
@@ -3077,40 +3144,40 @@
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3146,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3155,13 +3222,13 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT15" t="n">
         <v>12</v>
       </c>
-      <c r="AT15" t="n">
-        <v>11</v>
-      </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3182,7 +3249,7 @@
         <v>24</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
@@ -3343,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3364,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
         <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.449</v>
+        <v>0.442</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L17" t="n">
         <v>6.8</v>
@@ -3426,16 +3493,16 @@
         <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
         <v>8.9</v>
@@ -3444,16 +3511,16 @@
         <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3465,19 +3532,19 @@
         <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3507,10 +3574,10 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3528,10 +3595,10 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>16</v>
@@ -3722,13 +3789,13 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
-        <v>0.208</v>
+        <v>0.211</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
         <v>4.9</v>
@@ -3790,34 +3857,34 @@
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R19" t="n">
         <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>3.9</v>
@@ -3826,40 +3893,40 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3889,7 +3956,7 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3898,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>26</v>
@@ -3907,10 +3974,10 @@
         <v>9</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7.2</v>
@@ -3972,28 +4039,28 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P20" t="n">
         <v>21.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.5</v>
@@ -4002,25 +4069,25 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4029,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4059,13 +4126,13 @@
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="n">
-        <v>0.538</v>
+        <v>0.545</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4330,40 +4397,40 @@
         <v>0.447</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O22" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P22" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.761</v>
+        <v>0.765</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
       </c>
       <c r="S22" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V22" t="n">
         <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>5.6</v>
@@ -4372,40 +4439,40 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>4</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4444,10 +4511,10 @@
         <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
@@ -4456,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -4488,40 +4555,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
         <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
         <v>19.1</v>
@@ -4530,43 +4597,43 @@
         <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,13 +4651,13 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4608,10 +4675,10 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>25</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4784,7 +4851,7 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
         <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J25" t="n">
         <v>86</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
         <v>8.6</v>
@@ -4882,28 +4949,28 @@
         <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O25" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P25" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
         <v>32.4</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4918,19 +4985,19 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4942,16 +5009,16 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4975,7 +5042,7 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4996,13 +5063,13 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,10 +5191,10 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5237,34 +5304,34 @@
         <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O27" t="n">
         <v>22.2</v>
       </c>
       <c r="P27" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
@@ -5276,25 +5343,25 @@
         <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA27" t="n">
         <v>23.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5309,13 +5376,13 @@
         <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -5413,52 +5480,52 @@
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5470,13 +5537,13 @@
         <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
@@ -5506,10 +5573,10 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,10 +5585,10 @@
         <v>5</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>14</v>
@@ -5530,10 +5597,10 @@
         <v>4</v>
       </c>
       <c r="AV28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW28" t="n">
         <v>11</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5548,7 +5615,7 @@
         <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,13 +5737,13 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>12</v>
@@ -5709,10 +5776,10 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
         <v>18</v>
@@ -5876,7 +5943,7 @@
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
@@ -5885,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5900,7 +5967,7 @@
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6067,7 +6134,7 @@
         <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6076,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
@@ -6088,16 +6155,16 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-7-2014-15</t>
+          <t>2015-04-07</t>
         </is>
       </c>
     </row>
